--- a/R/length_weight_params.xlsx
+++ b/R/length_weight_params.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="9075" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="9075"/>
   </bookViews>
   <sheets>
     <sheet name="length_weight_params" sheetId="1" r:id="rId1"/>
@@ -1320,7 +1320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2533,7 +2533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
